--- a/Truth Table.xlsx
+++ b/Truth Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenon\Desktop\Data Structures Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCCC93F-2255-4430-8ED2-E1531337CF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EF4CC8-1624-4BB1-8C3C-24A20F3349C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DB6909CF-917E-4F70-94BD-E8DF70E4AB6C}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -428,7 +429,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Truth Table.xlsx
+++ b/Truth Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenon\Desktop\Data Structures Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EF4CC8-1624-4BB1-8C3C-24A20F3349C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84FA0A1-128A-45D3-B288-1D5CF3162B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DB6909CF-917E-4F70-94BD-E8DF70E4AB6C}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="11">
   <si>
     <t>X</t>
   </si>
@@ -69,9 +68,6 @@
   </si>
   <si>
     <t>XAND</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
 </sst>
 </file>
@@ -429,7 +425,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +646,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
